--- a/OnBoard/output/trust/catch/Catch_Trust_36.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_36.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="G32">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="G33">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>14</v>
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="G34">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>6</v>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>0.233</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>41</v>
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="G36">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1872,19 +1872,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Brissopsis sp</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>BRISSPP</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.095</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I37">
         <v>4.068615384615385</v>
@@ -1913,19 +1913,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Brissopsis sp</t>
+          <t>Dardanus calidus</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BRISSPP</t>
+          <t>DARDCAL</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.46</v>
+        <v>0.014</v>
       </c>
       <c r="H38">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>4.068615384615385</v>
@@ -1954,19 +1954,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Dardanus calidus</t>
+          <t>Eggs of Raja sp</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DARDCAL</t>
+          <t>EGGSRAJ</t>
         </is>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I39">
         <v>4.068615384615385</v>
@@ -1995,19 +1995,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Eggs of Murex</t>
+          <t>Goneplax rhomboides</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EGGSMUR</t>
+          <t>GONERHO</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I40">
         <v>4.068615384615385</v>
@@ -2036,19 +2036,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Eggs of Raja sp</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EGGSRAJ</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I41">
         <v>4.068615384615385</v>
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Goneplax rhomboides</t>
+          <t>Nephtys sp</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>GONERHO</t>
+          <t>NEPHSPP</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>4.068615384615385</v>
@@ -2118,19 +2118,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Liocarcinus depurator</t>
+          <t>Sipunculidae nd</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SIPUNND</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.618</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="I43">
         <v>4.068615384615385</v>
@@ -2159,19 +2159,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Trachythyone elongata</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>TRACELO</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.359</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>4.068615384615385</v>
@@ -2200,19 +2200,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Nephtys sp</t>
+          <t>Trachythyone tergestina</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NEPHSPP</t>
+          <t>TRACTER</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I45">
         <v>4.068615384615385</v>
@@ -2241,19 +2241,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G46">
-        <v>1.095</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="I46">
         <v>4.068615384615385</v>
@@ -2282,267 +2282,21 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sipunculidae nd</t>
+          <t>Virgularia mirabilis</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>SIPUNND</t>
+          <t>VIRGMIR</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>4.068615384615385</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Stones NA</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>STONES</t>
-        </is>
-      </c>
-      <c r="G48">
-        <v>0.056</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>4.068615384615385</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Trachythyone elongata</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>TRACELO</t>
-        </is>
-      </c>
-      <c r="G49">
-        <v>0.002</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>4.068615384615385</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Trachythyone tergestina</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>TRACTER</t>
-        </is>
-      </c>
-      <c r="G50">
-        <v>0.186</v>
-      </c>
-      <c r="H50">
-        <v>31</v>
-      </c>
-      <c r="I50">
-        <v>4.068615384615385</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Turritella communis</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>TURRCOM</t>
-        </is>
-      </c>
-      <c r="G51">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="H51">
-        <v>137</v>
-      </c>
-      <c r="I51">
-        <v>4.068615384615385</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Virgularia mirabilis</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>VIRGMIR</t>
-        </is>
-      </c>
-      <c r="G52">
-        <v>0.001</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>4.068615384615385</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G53">
-        <v>1.51</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
         <v>4.068615384615385</v>
       </c>
     </row>
